--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="901">
   <si>
     <t>anchor score</t>
   </si>
@@ -298,529 +298,529 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>threatening</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>threats</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>damn</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>expose</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>threatening</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>threats</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>damn</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>expose</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>3</t>
@@ -3082,10 +3082,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3143,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03125929444346707</v>
+        <v>0.03174347036767154</v>
       </c>
       <c r="C3">
         <v>234</v>
@@ -3164,28 +3164,28 @@
         <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="K3">
-        <v>0.005093609520807053</v>
+        <v>0.008486746394377062</v>
       </c>
       <c r="L3">
-        <v>730</v>
+        <v>221</v>
       </c>
       <c r="M3">
-        <v>763</v>
+        <v>221</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2344</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3193,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01935260419062891</v>
+        <v>0.01965235711808884</v>
       </c>
       <c r="C4">
         <v>255</v>
@@ -3214,28 +3214,28 @@
         <v>259</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="K4">
-        <v>0.004423464868731403</v>
+        <v>0.007508758546402959</v>
       </c>
       <c r="L4">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>290</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3243,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01226090402679855</v>
+        <v>0.01245081344876242</v>
       </c>
       <c r="C5">
         <v>36</v>
@@ -3264,28 +3264,28 @@
         <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="K5">
-        <v>0.004357477232036161</v>
+        <v>0.005093609520807053</v>
       </c>
       <c r="L5">
-        <v>304</v>
+        <v>730</v>
       </c>
       <c r="M5">
-        <v>311</v>
+        <v>763</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>72</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3293,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01137763741608134</v>
+        <v>0.01155386590137736</v>
       </c>
       <c r="C6">
         <v>31</v>
@@ -3314,28 +3314,28 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="K6">
-        <v>0.003983294084520686</v>
+        <v>0.004423464868731403</v>
       </c>
       <c r="L6">
-        <v>466</v>
+        <v>194</v>
       </c>
       <c r="M6">
-        <v>488</v>
+        <v>196</v>
       </c>
       <c r="N6">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>1655</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3343,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.010010986216964</v>
+        <v>0.01016604661068347</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -3364,28 +3364,28 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="K7">
-        <v>0.003955175021954474</v>
+        <v>0.004357477232036161</v>
       </c>
       <c r="L7">
-        <v>48</v>
+        <v>304</v>
       </c>
       <c r="M7">
-        <v>48</v>
+        <v>311</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009800205006005386</v>
+        <v>0.009952000604743464</v>
       </c>
       <c r="C8">
         <v>23</v>
@@ -3414,28 +3414,28 @@
         <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.003743512740213007</v>
+        <v>0.003983294084520686</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>488</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>48</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3443,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.009138738289840817</v>
+        <v>0.009280288415533793</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -3464,28 +3464,28 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="K9">
-        <v>0.003658939046331451</v>
+        <v>0.003955175021954474</v>
       </c>
       <c r="L9">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3493,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008907340268210962</v>
+        <v>0.009045306264672091</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -3514,16 +3514,16 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K10">
-        <v>0.003610564297342427</v>
+        <v>0.003743512740213007</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3543,7 +3543,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008669768380826698</v>
+        <v>0.008804054620908573</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -3564,28 +3564,28 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="K11">
-        <v>0.003579108853733453</v>
+        <v>0.003658939046331451</v>
       </c>
       <c r="L11">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="M11">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="N11">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>3027</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3593,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008425500394675219</v>
+        <v>0.008556003162351396</v>
       </c>
       <c r="C12">
         <v>17</v>
@@ -3614,28 +3614,28 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>147</v>
+        <v>271</v>
       </c>
       <c r="K12">
-        <v>0.003524691119740123</v>
+        <v>0.003610564297342427</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3643,7 +3643,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008425500394675219</v>
+        <v>0.008556003162351396</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -3664,28 +3664,28 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="K13">
-        <v>0.003472529546937005</v>
+        <v>0.003579108853733453</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3693,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008173936017865696</v>
+        <v>0.00830054229917495</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -3714,28 +3714,28 @@
         <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="K14">
-        <v>0.003387369394549436</v>
+        <v>0.003524691119740123</v>
       </c>
       <c r="L14">
-        <v>269</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="N14">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>615</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3743,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.007914379517539703</v>
+        <v>0.008036965522298701</v>
       </c>
       <c r="C15">
         <v>15</v>
@@ -3764,16 +3764,16 @@
         <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K15">
-        <v>0.003229386882396572</v>
+        <v>0.003472529546937005</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3793,7 +3793,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.007914379517539703</v>
+        <v>0.008036965522298701</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3814,28 +3814,28 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="K16">
-        <v>0.003168210046924835</v>
+        <v>0.003387369394549436</v>
       </c>
       <c r="L16">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="M16">
-        <v>128</v>
+        <v>279</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>439</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3843,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00764601702006619</v>
+        <v>0.007764446351984376</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -3864,28 +3864,28 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="K17">
-        <v>0.003032070530116753</v>
+        <v>0.003229386882396572</v>
       </c>
       <c r="L17">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>262</v>
+        <v>32</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>639</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3893,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00764601702006619</v>
+        <v>0.007764446351984376</v>
       </c>
       <c r="C18">
         <v>14</v>
@@ -3914,28 +3914,28 @@
         <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>274</v>
+        <v>136</v>
       </c>
       <c r="K18">
-        <v>0.0030208148208175</v>
+        <v>0.003168210046924835</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3943,7 +3943,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00764601702006619</v>
+        <v>0.007764446351984376</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3964,28 +3964,28 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>275</v>
+        <v>93</v>
       </c>
       <c r="K19">
-        <v>0.002854401704521874</v>
+        <v>0.003032070530116753</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>251</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>639</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3993,7 +3993,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.007367886358694176</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4014,16 +4014,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K20">
-        <v>0.002854401704521874</v>
+        <v>0.0030208148208175</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>73</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4043,7 +4043,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007367886358694176</v>
+        <v>0.007482007718458258</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K21">
         <v>0.002854401704521874</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>91</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4093,7 +4093,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.007078836240380306</v>
+        <v>0.007188480496272798</v>
       </c>
       <c r="C22">
         <v>12</v>
@@ -4114,16 +4114,16 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K22">
-        <v>0.00279673107880366</v>
+        <v>0.002854401704521874</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4143,7 +4143,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007078836240380306</v>
+        <v>0.007188480496272798</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -4164,16 +4164,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K23">
-        <v>0.00279673107880366</v>
+        <v>0.002854401704521874</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4193,7 +4193,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007078836240380306</v>
+        <v>0.007188480496272798</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4214,16 +4214,16 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K24">
-        <v>0.002737845934948713</v>
+        <v>0.00279673107880366</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4235,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>202</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4243,7 +4243,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006777469707908067</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4264,16 +4264,16 @@
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K25">
-        <v>0.002616102374956492</v>
+        <v>0.00279673107880366</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4293,7 +4293,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006777469707908067</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4314,16 +4314,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K26">
-        <v>0.002616102374956492</v>
+        <v>0.002737845934948713</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4335,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4343,7 +4343,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006777469707908067</v>
+        <v>0.006882446090709311</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K27">
         <v>0.002616102374956492</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4393,7 +4393,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006462063816235594</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -4414,28 +4414,28 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>153</v>
+        <v>282</v>
       </c>
       <c r="K28">
-        <v>0.002570636694597459</v>
+        <v>0.002616102374956492</v>
       </c>
       <c r="L28">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4443,7 +4443,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006462063816235594</v>
+        <v>0.006562154869990905</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4464,16 +4464,16 @@
         <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K29">
-        <v>0.002553054498560872</v>
+        <v>0.002616102374956492</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -4485,7 +4485,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>210</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4493,7 +4493,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006130452013399273</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4514,28 +4514,28 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K30">
-        <v>0.002498478775351638</v>
+        <v>0.002570636694597459</v>
       </c>
       <c r="L30">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="M30">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4543,7 +4543,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006130452013399273</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4564,16 +4564,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K31">
-        <v>0.002422040161797429</v>
+        <v>0.002553054498560872</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>41</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4593,7 +4593,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006130452013399273</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4614,28 +4614,28 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="K32">
-        <v>0.002422040161797429</v>
+        <v>0.002498478775351638</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4643,7 +4643,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006130452013399273</v>
+        <v>0.006225406724381212</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4664,7 +4664,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K33">
         <v>0.002422040161797429</v>
@@ -4685,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4693,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005779845587217799</v>
+        <v>0.005869369747272384</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4714,28 +4714,28 @@
         <v>72</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>137</v>
+        <v>286</v>
       </c>
       <c r="K34">
-        <v>0.002402570071932075</v>
+        <v>0.002422040161797429</v>
       </c>
       <c r="L34">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4743,7 +4743,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005779845587217799</v>
+        <v>0.005869369747272384</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4764,28 +4764,28 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="K35">
-        <v>0.002355327793423706</v>
+        <v>0.002422040161797429</v>
       </c>
       <c r="L35">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>218</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4793,7 +4793,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005779845587217799</v>
+        <v>0.005869369747272384</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -4814,28 +4814,28 @@
         <v>5</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="K36">
-        <v>0.002353799945137356</v>
+        <v>0.002402570071932075</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4843,7 +4843,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -4864,28 +4864,28 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>289</v>
+        <v>141</v>
       </c>
       <c r="K37">
-        <v>0.002353799945137356</v>
+        <v>0.002355327793423706</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>87</v>
+        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4893,7 +4893,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4914,7 +4914,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K38">
         <v>0.002353799945137356</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>264</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4943,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4964,28 +4964,28 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>155</v>
+        <v>289</v>
       </c>
       <c r="K39">
-        <v>0.0022402628084039</v>
+        <v>0.002353799945137356</v>
       </c>
       <c r="L39">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M39">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>166</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4993,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5014,16 +5014,16 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K40">
-        <v>0.002211010052999857</v>
+        <v>0.002353799945137356</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>77</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5043,7 +5043,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5064,28 +5064,28 @@
         <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="K41">
-        <v>0.002211010052999857</v>
+        <v>0.0022402628084039</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>94</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5093,7 +5093,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5114,7 +5114,7 @@
         <v>5</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K42">
         <v>0.002211010052999857</v>
@@ -5135,7 +5135,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5143,7 +5143,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5164,7 +5164,7 @@
         <v>15</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K43">
         <v>0.002211010052999857</v>
@@ -5185,7 +5185,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5193,7 +5193,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005406550483956562</v>
+        <v>0.005490292667647304</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5214,7 +5214,7 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K44">
         <v>0.002211010052999857</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5243,7 +5243,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5264,28 +5264,28 @@
         <v>45</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>132</v>
+        <v>294</v>
       </c>
       <c r="K45">
-        <v>0.002197172530310629</v>
+        <v>0.002211010052999857</v>
       </c>
       <c r="L45">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>715</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5293,7 +5293,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5314,28 +5314,28 @@
         <v>24</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="K46">
-        <v>0.002161338271942253</v>
+        <v>0.002211010052999857</v>
       </c>
       <c r="L46">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5343,7 +5343,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005005493108482</v>
+        <v>0.005083023305341734</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5364,28 +5364,28 @@
         <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K47">
-        <v>0.002146598241990364</v>
+        <v>0.002197172530310629</v>
       </c>
       <c r="L47">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="M47">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>86</v>
+        <v>715</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5393,7 +5393,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -5414,28 +5414,28 @@
         <v>14</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>296</v>
+        <v>127</v>
       </c>
       <c r="K48">
-        <v>0.00213603864450888</v>
+        <v>0.002146598241990364</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -5464,7 +5464,7 @@
         <v>7</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K49">
         <v>0.00213603864450888</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -5514,28 +5514,28 @@
         <v>3</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>141</v>
+        <v>297</v>
       </c>
       <c r="K50">
-        <v>0.002117011910411392</v>
+        <v>0.00213603864450888</v>
       </c>
       <c r="L50">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5543,7 +5543,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -5564,28 +5564,28 @@
         <v>32</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K51">
-        <v>0.002074543578922248</v>
+        <v>0.002117011910411392</v>
       </c>
       <c r="L51">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="M51">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="N51">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O51">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5593,7 +5593,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004569369144920408</v>
+        <v>0.004640144207766896</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5614,28 +5614,28 @@
         <v>21</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="K52">
-        <v>0.002058338341285086</v>
+        <v>0.002074543578922248</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>50</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5643,7 +5643,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -5664,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K53">
         <v>0.002058338341285086</v>
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5693,7 +5693,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -5714,16 +5714,16 @@
         <v>19</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K54">
-        <v>0.001977587510977237</v>
+        <v>0.002058338341285086</v>
       </c>
       <c r="L54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -5743,7 +5743,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -5764,7 +5764,7 @@
         <v>34</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K55">
         <v>0.001977587510977237</v>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -5793,7 +5793,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -5814,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K56">
         <v>0.001977587510977237</v>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5843,7 +5843,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -5864,7 +5864,7 @@
         <v>15</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K57">
         <v>0.001977587510977237</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -5893,7 +5893,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5914,7 +5914,7 @@
         <v>36</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K58">
         <v>0.001977587510977237</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -5943,7 +5943,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -5964,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K59">
         <v>0.001977587510977237</v>
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -5993,7 +5993,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6014,7 +6014,7 @@
         <v>27</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K60">
         <v>0.001977587510977237</v>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -6043,7 +6043,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6064,28 +6064,28 @@
         <v>26</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
       <c r="K61">
-        <v>0.001963227215450531</v>
+        <v>0.001977587510977237</v>
       </c>
       <c r="L61">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="M61">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -6093,7 +6093,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004086968008932848</v>
+        <v>0.004150271149587475</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6143,7 +6143,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003876567437043906</v>
+        <v>0.003936611678444369</v>
       </c>
       <c r="C63">
         <v>33</v>
@@ -6193,7 +6193,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6243,7 +6243,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6293,7 +6293,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6314,7 +6314,7 @@
         <v>13</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K66">
         <v>0.001885822738334359</v>
@@ -6343,7 +6343,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6364,7 +6364,7 @@
         <v>5</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K67">
         <v>0.001885822738334359</v>
@@ -6393,7 +6393,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6414,7 +6414,7 @@
         <v>6</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K68">
         <v>0.001879564018955208</v>
@@ -6443,7 +6443,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6493,7 +6493,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6543,7 +6543,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6593,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003539418120190153</v>
+        <v>0.003594240248136399</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6643,7 +6643,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003098039197297086</v>
+        <v>0.003146024797045211</v>
       </c>
       <c r="C73">
         <v>22</v>
@@ -6664,7 +6664,7 @@
         <v>1655</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K73">
         <v>0.001779350248717462</v>
@@ -6693,7 +6693,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -6743,7 +6743,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -6793,7 +6793,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6843,7 +6843,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6943,7 +6943,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6964,7 +6964,7 @@
         <v>5</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K79">
         <v>0.001665259344025396</v>
@@ -6993,7 +6993,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7014,7 +7014,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K80">
         <v>0.001651380077102138</v>
@@ -7043,7 +7043,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7064,7 +7064,7 @@
         <v>11</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K81">
         <v>0.001625407921404139</v>
@@ -7093,7 +7093,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7143,7 +7143,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7243,7 +7243,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.0028899227936089</v>
+        <v>0.002934684873636192</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002366865120426526</v>
+        <v>0.002403525548230562</v>
       </c>
       <c r="C86">
         <v>7</v>
@@ -7343,7 +7343,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002337828098656159</v>
+        <v>0.002374038771368082</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -7393,7 +7393,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002272086891447683</v>
+        <v>0.002307279297102554</v>
       </c>
       <c r="C88">
         <v>11</v>
@@ -7443,25 +7443,25 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002081674168975464</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
         <v>16</v>
-      </c>
-      <c r="D89">
-        <v>237</v>
-      </c>
-      <c r="E89">
-        <v>0.93</v>
-      </c>
-      <c r="F89">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>103</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>327</v>
@@ -7493,7 +7493,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>328</v>
@@ -7543,7 +7543,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>329</v>
@@ -7593,7 +7593,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>330</v>
@@ -7643,7 +7643,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>331</v>
@@ -7693,7 +7693,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7711,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K94">
         <v>0.00160749201366025</v>
@@ -7743,7 +7743,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K95">
         <v>0.001567434992972725</v>
@@ -7793,7 +7793,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>332</v>
@@ -7843,7 +7843,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>333</v>
@@ -7893,7 +7893,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>334</v>
@@ -7943,7 +7943,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>335</v>
@@ -7993,7 +7993,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>336</v>
@@ -8043,7 +8043,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8061,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K101">
         <v>0.001398635900180742</v>
@@ -8093,7 +8093,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>337</v>
@@ -8143,7 +8143,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8161,7 +8161,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>338</v>
@@ -8193,7 +8193,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>339</v>
@@ -8243,7 +8243,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>340</v>
@@ -8293,7 +8293,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>341</v>
@@ -8343,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>342</v>
@@ -8393,7 +8393,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>343</v>
@@ -8443,7 +8443,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>344</v>
@@ -8493,7 +8493,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>345</v>
@@ -8543,7 +8543,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>346</v>
@@ -8593,7 +8593,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8611,10 +8611,10 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K112">
         <v>0.001361511436544985</v>
@@ -8643,7 +8643,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>347</v>
@@ -8693,7 +8693,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>348</v>
@@ -8743,7 +8743,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>349</v>
@@ -8793,7 +8793,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>350</v>
@@ -8843,7 +8843,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>351</v>
@@ -8893,7 +8893,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>352</v>
@@ -8943,7 +8943,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>353</v>
@@ -8993,7 +8993,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>354</v>
@@ -9043,7 +9043,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002043484004466424</v>
+        <v>0.002075135574793737</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>355</v>
@@ -9093,25 +9093,25 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002043484004466424</v>
+        <v>0.002009536032612068</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>209</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>356</v>
@@ -9143,13 +9143,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001978885037161897</v>
+        <v>0.001972508239362742</v>
       </c>
       <c r="C123">
         <v>13</v>
       </c>
       <c r="D123">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E123">
         <v>0.9399999999999999</v>
@@ -9161,7 +9161,7 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>357</v>
@@ -9193,25 +9193,25 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001942422020410228</v>
+        <v>0.001833908266656546</v>
       </c>
       <c r="C124">
         <v>13</v>
       </c>
       <c r="D124">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="E124">
-        <v>0.9399999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F124">
-        <v>0.06000000000000005</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>358</v>
@@ -9243,25 +9243,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001850820461857785</v>
+        <v>0.001754811886975521</v>
       </c>
       <c r="C125">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="E125">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
         <v>1</v>
       </c>
       <c r="H125">
-        <v>54</v>
+        <v>715</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>359</v>
@@ -9293,25 +9293,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001805936081522719</v>
+        <v>0.001723212622871659</v>
       </c>
       <c r="C126">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D126">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="E126">
-        <v>0.07000000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="F126">
-        <v>0.9299999999999999</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>41</v>
+        <v>3027</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>360</v>
@@ -9343,25 +9343,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001728046140907421</v>
+        <v>0.001647465706057078</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D127">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E127">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F127">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>715</v>
+        <v>271</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>361</v>
@@ -9393,25 +9393,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001696928853182463</v>
+        <v>0.00163259365137639</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="E128">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="F128">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>3027</v>
+        <v>290</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>362</v>
@@ -9443,25 +9443,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001622337286839319</v>
+        <v>0.001611777866761517</v>
       </c>
       <c r="C129">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E129">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>271</v>
+        <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>363</v>
@@ -9493,25 +9493,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001607692072221687</v>
+        <v>0.001462332692764257</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="E130">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F130">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>290</v>
+        <v>10</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>364</v>
@@ -9543,25 +9543,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001587193786028922</v>
+        <v>0.001450925388625987</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E131">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F131">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>29</v>
+        <v>439</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>365</v>
@@ -9593,28 +9593,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001440028065235736</v>
+        <v>0.001438494613048546</v>
       </c>
       <c r="C132">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D132">
+        <v>105</v>
+      </c>
+      <c r="E132">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F132">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132">
         <v>110</v>
       </c>
-      <c r="E132">
-        <v>0.97</v>
-      </c>
-      <c r="F132">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G132" t="b">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>10</v>
-      </c>
       <c r="J132" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K132">
         <v>0.001239954725667312</v>
@@ -9643,28 +9643,28 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001428794754109568</v>
+        <v>0.001390953355741704</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D133">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E133">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F133">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>439</v>
+        <v>535</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K133">
         <v>0.00122225739635366</v>
@@ -9693,28 +9693,28 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001416553582321003</v>
+        <v>0.001382113924754694</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E134">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F134">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G134" t="b">
         <v>1</v>
       </c>
       <c r="H134">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K134">
         <v>0.00122225739635366</v>
@@ -9743,28 +9743,28 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001369737460984733</v>
+        <v>0.001314888248774372</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D135">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="E135">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F135">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
       </c>
       <c r="H135">
-        <v>535</v>
+        <v>258</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K135">
         <v>0.00122225739635366</v>
@@ -9793,28 +9793,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00136103285582546</v>
+        <v>0.001290703259087043</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D136">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E136">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F136">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K136">
         <v>0.00122225739635366</v>
@@ -9843,28 +9843,28 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001294832557770773</v>
+        <v>0.001276926913335941</v>
       </c>
       <c r="C137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D137">
         <v>91</v>
       </c>
       <c r="E137">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F137">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>258</v>
+        <v>15</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K137">
         <v>0.00121770531709332</v>
@@ -9893,28 +9893,28 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001271016456223212</v>
+        <v>0.001235588487133673</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D138">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E138">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F138">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K138">
         <v>0.001216901077171726</v>
@@ -9943,28 +9943,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001257450237936403</v>
+        <v>0.001214132095222368</v>
       </c>
       <c r="C139">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="E139">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F139">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K139">
         <v>0.001190692768429204</v>
@@ -9993,28 +9993,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001216742337334512</v>
+        <v>0.001199969000201754</v>
       </c>
       <c r="C140">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="E140">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F140">
-        <v>0.06999999999999995</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>244</v>
+        <v>13</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K140">
         <v>0.001167664309135037</v>
@@ -10043,25 +10043,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001195613214882514</v>
+        <v>0.001171707074523025</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="E141">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>366</v>
@@ -10093,25 +10093,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001181666146324722</v>
+        <v>0.001159489965748476</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D142">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="E142">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F142">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>367</v>
@@ -10143,13 +10143,13 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00115383529336195</v>
+        <v>0.001143372762569568</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E143">
         <v>0.97</v>
@@ -10161,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>368</v>
@@ -10193,25 +10193,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001141804529365193</v>
+        <v>0.001105191206637456</v>
       </c>
       <c r="C144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E144">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>369</v>
@@ -10243,13 +10243,13 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001125933158215812</v>
+        <v>0.001097146851201342</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E145">
         <v>0.97</v>
@@ -10261,7 +10261,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>370</v>
@@ -10293,25 +10293,25 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001088333976860799</v>
+        <v>0.001078975190775418</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="E146">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F146">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>371</v>
@@ -10343,25 +10343,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001080412320146117</v>
+        <v>0.001077462632949321</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D147">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E147">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F147">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>372</v>
@@ -10393,25 +10393,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001062517827918223</v>
+        <v>0.001025959181293163</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="E148">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F148">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>373</v>
@@ -10443,25 +10443,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001061028340792175</v>
+        <v>0.0009652660157406364</v>
       </c>
       <c r="C149">
         <v>4</v>
       </c>
       <c r="D149">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E149">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F149">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>374</v>
@@ -10493,13 +10493,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001010310459554641</v>
+        <v>0.0009598804974873109</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E150">
         <v>0.98</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>375</v>
@@ -10543,25 +10543,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0009505430330339201</v>
+        <v>0.0009598804974873109</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>52</v>
       </c>
       <c r="E151">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>376</v>
@@ -10593,25 +10593,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0009452396588640051</v>
+        <v>0.0009495640909300299</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D152">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E152">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F152">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>377</v>
@@ -10643,25 +10643,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.0009452396588640051</v>
+        <v>0.0009444771527559868</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>7</v>
+        <v>223</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>378</v>
@@ -10693,25 +10693,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.0009350806061064657</v>
+        <v>0.0009213641671843169</v>
       </c>
       <c r="C154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D154">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>379</v>
@@ -10743,13 +10743,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0009300712578418831</v>
+        <v>0.0009093772721306921</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E155">
         <v>0.95</v>
@@ -10761,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>380</v>
@@ -10793,25 +10793,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.000907310809375346</v>
+        <v>0.0009093321308233344</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>55</v>
+        <v>1113</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>381</v>
@@ -10843,25 +10843,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0008955067477020576</v>
+        <v>0.0008898135151042973</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E157">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F157">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>382</v>
@@ -10893,25 +10893,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0008954622949247805</v>
+        <v>0.0008844750892027368</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D158">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E158">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F158">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>1113</v>
+        <v>198</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>383</v>
@@ -10943,25 +10943,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0008762413922061021</v>
+        <v>0.000847334343320492</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>384</v>
@@ -10993,25 +10993,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008709843920990355</v>
+        <v>0.0008305152520714046</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E160">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F160">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>385</v>
@@ -11043,25 +11043,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008344101455552342</v>
+        <v>0.0008201990086061687</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>386</v>
@@ -11093,25 +11093,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0008178475920745596</v>
+        <v>0.0007979638465078525</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E162">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>387</v>
@@ -11143,25 +11143,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008076886999214596</v>
+        <v>0.0007979638465078525</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E163">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F163">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>388</v>
@@ -11193,7 +11193,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0007857926856867542</v>
+        <v>0.0007979638465078525</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11211,7 +11211,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>389</v>
@@ -11243,7 +11243,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007857926856867542</v>
+        <v>0.0007979638465078525</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11261,7 +11261,7 @@
         <v>1</v>
       </c>
       <c r="H165">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>390</v>
@@ -11293,25 +11293,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007857926856867542</v>
+        <v>0.0007699845094074549</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>391</v>
@@ -11343,25 +11343,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007857926856867542</v>
+        <v>0.000753646742150712</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>392</v>
@@ -11393,25 +11393,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007582401110430857</v>
+        <v>0.0007300843488914247</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D168">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>393</v>
@@ -11443,25 +11443,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0007421515400295182</v>
+        <v>0.000726250923217663</v>
       </c>
       <c r="C169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E169">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>394</v>
@@ -11493,13 +11493,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.000718948538588474</v>
+        <v>0.0007115324138093378</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
       <c r="D170">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E170">
         <v>0.89</v>
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>395</v>
@@ -11543,13 +11543,13 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0007151735832834831</v>
+        <v>0.000683434862196053</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E171">
         <v>0.96</v>
@@ -11561,7 +11561,7 @@
         <v>1</v>
       </c>
       <c r="H171">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>396</v>
@@ -11593,25 +11593,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0007006795719471439</v>
+        <v>0.000683434862196053</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E172">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>397</v>
@@ -11643,25 +11643,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0006730105858896308</v>
+        <v>0.0006678461993895209</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E173">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F173">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>398</v>
@@ -11693,25 +11693,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0006730105858896308</v>
+        <v>0.0006678461993895209</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F174">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>399</v>
@@ -11743,25 +11743,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0006576596934066974</v>
+        <v>0.0006631415104071233</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>400</v>
@@ -11793,25 +11793,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006576596934066974</v>
+        <v>0.0006531319629343619</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F176">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>401</v>
@@ -11843,28 +11843,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006530267639738941</v>
+        <v>0.0006515028505583263</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E177">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F177">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K177">
         <v>0.001133561084112069</v>
@@ -11893,28 +11893,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006431698898491428</v>
+        <v>0.0006429949160559926</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E178">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F178">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
+        <v>103</v>
+      </c>
+      <c r="J178" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="K178">
         <v>0.001118943767580295</v>
@@ -11943,28 +11943,28 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0006415656259531621</v>
+        <v>0.0006429949160559926</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D179">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K179">
         <v>0.001104739833055321</v>
@@ -11993,28 +11993,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0006331874610381805</v>
+        <v>0.0006162647124485469</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E180">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F180">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>103</v>
+        <v>526</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K180">
         <v>0.001046574338654871</v>
@@ -12043,28 +12043,28 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0006331874610381805</v>
+        <v>0.0005972000821553697</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E181">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K181">
         <v>0.001000434374920697</v>
@@ -12093,28 +12093,28 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0006068649671387758</v>
+        <v>0.0005941813813822636</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E182">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F182">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>526</v>
+        <v>83</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K182">
         <v>0.0009989765961913759</v>
@@ -12143,25 +12143,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.000588091125309648</v>
+        <v>0.0005775438534082733</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D183">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>402</v>
@@ -12193,25 +12193,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.00058511846809195</v>
+        <v>0.000577036902649903</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E184">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F184">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>403</v>
@@ -12243,25 +12243,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.000568734708543087</v>
+        <v>0.0005459534347909319</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D185">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E185">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="F185">
-        <v>0.09999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>404</v>
@@ -12293,25 +12293,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005682354901891804</v>
+        <v>0.0005329087219939179</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>405</v>
@@ -12343,25 +12343,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005376261313864587</v>
+        <v>0.0005290640526968806</v>
       </c>
       <c r="C187">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E187">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>406</v>
@@ -12393,25 +12393,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005247803866229117</v>
+        <v>0.0005290640526968806</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E188">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F188">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>407</v>
@@ -12443,25 +12443,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0005209943591910704</v>
+        <v>0.0005086346376867287</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>408</v>
@@ -12493,25 +12493,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005209943591910704</v>
+        <v>0.0005086346376867287</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E190">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F190">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>409</v>
@@ -12543,25 +12543,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005008765493954376</v>
+        <v>0.0005031293948386148</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>410</v>
@@ -12593,25 +12593,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005008765493954376</v>
+        <v>0.0005031293948386148</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E192">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F192">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>58</v>
+        <v>950</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>411</v>
@@ -12643,25 +12643,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004954552767627123</v>
+        <v>0.0004826330078703182</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E193">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F193">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>412</v>
@@ -12693,25 +12693,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004954552767627123</v>
+        <v>0.0004826330078703182</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F194">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>950</v>
+        <v>53</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>413</v>
@@ -12743,25 +12743,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.00047527151651696</v>
+        <v>0.0004759363490775574</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E195">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>414</v>
@@ -12793,13 +12793,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.00047527151651696</v>
+        <v>0.0004546660654116672</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E196">
         <v>0.92</v>
@@ -12811,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>415</v>
@@ -12843,25 +12843,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0004686770003356564</v>
+        <v>0.0004546660654116672</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>289</v>
+        <v>37</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>416</v>
@@ -12893,7 +12893,7 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0004477311474623903</v>
+        <v>0.0004546660654116672</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>417</v>
@@ -12943,25 +12943,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0004477311474623903</v>
+        <v>0.0004473750140114407</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>418</v>
@@ -12993,25 +12993,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0004477311474623903</v>
+        <v>0.0004244464079001738</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E200">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F200">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>419</v>
@@ -13043,25 +13043,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0004405513048086946</v>
+        <v>0.0004244464079001738</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F201">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>420</v>
@@ -13093,25 +13093,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004179724235046419</v>
+        <v>0.0004173237102636697</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D202">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E202">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F202">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>421</v>
@@ -13143,25 +13143,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004179724235046419</v>
+        <v>0.0003916234776766496</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E203">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F203">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>422</v>
@@ -13193,25 +13193,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004109583667530517</v>
+        <v>0.0003916234776766496</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E204">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F204">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>423</v>
@@ -13243,25 +13243,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003856501339606653</v>
+        <v>0.0003557662069046689</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E205">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F205">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>424</v>
@@ -13293,25 +13293,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003856501339606653</v>
+        <v>0.0003557662069046689</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E206">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F206">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>425</v>
@@ -13343,25 +13343,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0003503397859735719</v>
+        <v>0.0003168418240552842</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E207">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F207">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>426</v>
@@ -13393,25 +13393,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0003503397859735719</v>
+        <v>0.0003163419061409165</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E208">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F208">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>427</v>
@@ -13443,25 +13443,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0003120091078710817</v>
+        <v>0.0003163419061409165</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F209">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>428</v>
@@ -13493,7 +13493,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0003115168150908096</v>
+        <v>0.0003163419061409165</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13511,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>429</v>
@@ -13543,25 +13543,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0003115168150908096</v>
+        <v>0.0002726948457165183</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F211">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>430</v>
@@ -13593,25 +13593,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0003115168150908096</v>
+        <v>0.0002726948457165183</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E212">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>431</v>
@@ -13643,25 +13643,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002685354933388067</v>
+        <v>0.0002397759799133511</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>432</v>
@@ -13693,25 +13693,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002685354933388067</v>
+        <v>0.0002240410023530064</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>433</v>
@@ -13743,25 +13743,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.000236118731498735</v>
+        <v>0.0002240410023530064</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>434</v>
@@ -13793,7 +13793,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002206237559676069</v>
+        <v>0.0002240410023530064</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13811,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>435</v>
@@ -13843,7 +13843,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002206237559676069</v>
+        <v>0.0002240410023530064</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13861,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>436</v>
@@ -13893,7 +13893,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002206237559676069</v>
+        <v>0.0002240410023530064</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>437</v>
@@ -13943,25 +13943,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002206237559676069</v>
+        <v>0.00016954722136238</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>438</v>
@@ -13993,25 +13993,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002206237559676069</v>
+        <v>0.00016954722136238</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>439</v>
@@ -14043,7 +14043,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001669611562079211</v>
+        <v>0.00016954722136238</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14061,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>440</v>
@@ -14093,25 +14093,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001669611562079211</v>
+        <v>0.0001538616166625992</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F222">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>441</v>
@@ -14143,25 +14143,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001669611562079211</v>
+        <v>0.0001538616166625992</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D223">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F223">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>442</v>
@@ -14193,7 +14193,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.000151514800464359</v>
+        <v>0.0001538616166625992</v>
       </c>
       <c r="C224">
         <v>2</v>
@@ -14211,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>443</v>
@@ -14243,13 +14243,13 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.000151514800464359</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E225">
         <v>0.75</v>
@@ -14261,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>444</v>
@@ -14293,13 +14293,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.000151514800464359</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E226">
         <v>0.75</v>
@@ -14311,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>445</v>
@@ -14343,7 +14343,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>446</v>
@@ -14393,7 +14393,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>447</v>
@@ -14443,7 +14443,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>448</v>
@@ -14493,7 +14493,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>449</v>
@@ -14543,7 +14543,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>450</v>
@@ -14593,7 +14593,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14611,7 +14611,7 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>451</v>
@@ -14643,7 +14643,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>452</v>
@@ -14693,7 +14693,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14711,7 +14711,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>453</v>
@@ -14743,7 +14743,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0001071371428584753</v>
+        <v>0.0001087965925064494</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14761,7 +14761,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>454</v>
@@ -14793,25 +14793,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001071371428584753</v>
+        <v>6.262592766225851E-05</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D236">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E236">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F236">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>455</v>
@@ -14843,25 +14843,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001071371428584753</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E237">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F237">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>456</v>
@@ -14893,13 +14893,13 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>6.16707086501647E-05</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C238">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E238">
         <v>0.67</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>457</v>
@@ -14943,7 +14943,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>4.360777628711133E-05</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>458</v>
@@ -14993,7 +14993,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>4.360777628711133E-05</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>459</v>
@@ -15043,7 +15043,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>4.360777628711133E-05</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>460</v>
@@ -15093,7 +15093,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>4.360777628711133E-05</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15111,7 +15111,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>461</v>
@@ -15143,7 +15143,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>4.360777628711133E-05</v>
+        <v>4.428321812808118E-05</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15161,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>462</v>
@@ -15193,25 +15193,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>4.360777628711133E-05</v>
+        <v>2.164044766852506E-05</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F244">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>463</v>
@@ -15243,25 +15243,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>4.360777628711133E-05</v>
+        <v>0</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E245">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F245">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>464</v>
@@ -15293,25 +15293,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>2.131037084867055E-05</v>
+        <v>0</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E246">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F246">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>465</v>
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>187</v>
+        <v>23</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>466</v>
@@ -15411,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>467</v>
@@ -15461,10 +15461,10 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J249" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K249">
         <v>0.0009280859468069188</v>
@@ -15511,10 +15511,10 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K250">
         <v>0.0009198907486751456</v>
@@ -15561,10 +15561,10 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K251">
         <v>0.0008818751011070678</v>
@@ -15611,10 +15611,10 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K252">
         <v>0.0008818751011070678</v>
@@ -15661,10 +15661,10 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K253">
         <v>0.0008419469308660737</v>
@@ -15711,10 +15711,10 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J254" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K254">
         <v>0.0008419469308660737</v>
@@ -15761,10 +15761,10 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J255" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K255">
         <v>0.0008296931250860671</v>
@@ -15811,7 +15811,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>468</v>
@@ -15861,7 +15861,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>469</v>
@@ -15911,7 +15911,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>470</v>
@@ -15961,7 +15961,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>471</v>
@@ -16011,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>472</v>
@@ -16039,30 +16039,6 @@
       </c>
     </row>
     <row r="261" spans="1:17">
-      <c r="A261" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261">
-        <v>2</v>
-      </c>
-      <c r="E261">
-        <v>0.5</v>
-      </c>
-      <c r="F261">
-        <v>0.5</v>
-      </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261">
-        <v>32</v>
-      </c>
       <c r="J261" s="1" t="s">
         <v>473</v>
       </c>
@@ -16089,30 +16065,6 @@
       </c>
     </row>
     <row r="262" spans="1:17">
-      <c r="A262" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="E262">
-        <v>0.5</v>
-      </c>
-      <c r="F262">
-        <v>0.5</v>
-      </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262">
-        <v>99</v>
-      </c>
       <c r="J262" s="1" t="s">
         <v>474</v>
       </c>
@@ -19078,7 +19030,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K376">
         <v>0.0008066118559727606</v>
@@ -19104,7 +19056,7 @@
     </row>
     <row r="377" spans="10:17">
       <c r="J377" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K377">
         <v>0.0008015487294648188</v>
@@ -19130,7 +19082,7 @@
     </row>
     <row r="378" spans="10:17">
       <c r="J378" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K378">
         <v>0.0007757654897811444</v>
@@ -19156,7 +19108,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K379">
         <v>0.0007707104485962383</v>
@@ -19182,7 +19134,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K380">
         <v>0.0007192869236976416</v>
@@ -19208,7 +19160,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K381">
         <v>0.0006773964736029629</v>
@@ -19234,7 +19186,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K382">
         <v>0.0006349831359465264</v>
@@ -19260,7 +19212,7 @@
     </row>
     <row r="383" spans="10:17">
       <c r="J383" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K383">
         <v>0.0006186624345510455</v>
@@ -19286,7 +19238,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K384">
         <v>0.0005866816350522165</v>
@@ -19312,7 +19264,7 @@
     </row>
     <row r="385" spans="10:17">
       <c r="J385" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K385">
         <v>0.0005866816350522165</v>
@@ -19338,7 +19290,7 @@
     </row>
     <row r="386" spans="10:17">
       <c r="J386" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K386">
         <v>0.0005768974571062395</v>
@@ -27502,7 +27454,7 @@
     </row>
     <row r="700" spans="10:17">
       <c r="J700" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K700">
         <v>0.0005536538121814621</v>
@@ -27528,7 +27480,7 @@
     </row>
     <row r="701" spans="10:17">
       <c r="J701" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K701">
         <v>0.0005485490384347506</v>
@@ -27554,7 +27506,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K702">
         <v>0.0005045174827000416</v>
@@ -27580,7 +27532,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K703">
         <v>0.0005045174827000416</v>
@@ -27606,7 +27558,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K704">
         <v>0.0004897172260256815</v>
@@ -27632,7 +27584,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K705">
         <v>0.0004838029955212105</v>
@@ -27684,7 +27636,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K707">
         <v>0.0004599453743375728</v>
@@ -27710,7 +27662,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K708">
         <v>0.0004599453743375728</v>
@@ -27736,7 +27688,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K709">
         <v>0.0004526066615839382</v>
@@ -27762,7 +27714,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K710">
         <v>0.0004243423031206332</v>
@@ -27788,7 +27740,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K711">
         <v>0.0004243423031206332</v>
@@ -27814,7 +27766,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K712">
         <v>0.0004148465625430336</v>
@@ -27840,7 +27792,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K713">
         <v>0.0004148465625430336</v>
@@ -27866,7 +27818,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K714">
         <v>0.0004148465625430336</v>
@@ -27892,7 +27844,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K715">
         <v>0.000391492365023295</v>
@@ -27918,7 +27870,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K716">
         <v>0.000391492365023295</v>
@@ -27944,7 +27896,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K717">
         <v>0.0003692508251302886</v>
@@ -27970,7 +27922,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K718">
         <v>0.0003692508251302886</v>
@@ -27996,7 +27948,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K719">
         <v>0.000358573440662025</v>
@@ -28022,7 +27974,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K720">
         <v>0.0003490206271209635</v>
@@ -28048,7 +28000,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K721">
         <v>0.0003256262118978716</v>
@@ -28074,7 +28026,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K722">
         <v>0.0003232128259346497</v>
@@ -28100,7 +28052,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K723">
         <v>0.0003232128259346497</v>
@@ -28126,7 +28078,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K724">
         <v>0.0002927037929284488</v>
@@ -28152,7 +28104,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K725">
         <v>0.0002768269060907311</v>
@@ -28178,7 +28130,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K726">
         <v>0.0002768269060907311</v>
@@ -28204,7 +28156,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K727">
         <v>0.0002302525025650731</v>
@@ -28230,7 +28182,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K728">
         <v>0.0002302525025650731</v>
@@ -28256,7 +28208,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K729">
         <v>0.0002302525025650731</v>
@@ -28282,7 +28234,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K730">
         <v>0.0001949064085407958</v>
@@ -28308,7 +28260,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K731">
         <v>0.0001837600779700289</v>
@@ -28334,7 +28286,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K732">
         <v>0.0001837600779700289</v>
@@ -28360,7 +28312,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K733">
         <v>0.0001399279733263861</v>
@@ -28386,7 +28338,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K734">
         <v>0.0001378196431759124</v>
@@ -28412,7 +28364,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K735">
         <v>0.0001378196431759124</v>
@@ -28438,7 +28390,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K736">
         <v>0.0001378196431759124</v>
@@ -28464,7 +28416,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K737">
         <v>0.0001378196431759124</v>
@@ -28490,7 +28442,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K738">
         <v>0.0001378196431759124</v>
@@ -28516,7 +28468,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K739">
         <v>0.0001319271808707922</v>
@@ -28542,7 +28494,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K740">
         <v>9.328660421656136E-05</v>
@@ -28568,7 +28520,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K741">
         <v>9.328660421656136E-05</v>
@@ -28594,7 +28546,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K742">
         <v>9.328660421656136E-05</v>
@@ -28620,7 +28572,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K743">
         <v>7.331444153015574E-05</v>
@@ -28646,7 +28598,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K744">
         <v>7.331444153015574E-05</v>
@@ -28672,7 +28624,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K745">
         <v>7.331444153015574E-05</v>
@@ -28698,7 +28650,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K746">
         <v>5.184113876487777E-05</v>
@@ -28724,7 +28676,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K747">
         <v>5.184113876487777E-05</v>
@@ -28750,7 +28702,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K748">
         <v>5.184113876487777E-05</v>
@@ -28776,7 +28728,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K749">
         <v>5.184113876487777E-05</v>
@@ -28802,7 +28754,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K750">
         <v>5.184113876487777E-05</v>
@@ -28828,7 +28780,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K751">
         <v>5.184113876487777E-05</v>
@@ -28854,7 +28806,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K752">
         <v>5.184113876487777E-05</v>
@@ -28880,7 +28832,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K753">
         <v>5.184113876487777E-05</v>
@@ -28906,7 +28858,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K754">
         <v>5.184113876487777E-05</v>
@@ -28932,7 +28884,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K755">
         <v>5.184113876487777E-05</v>
@@ -28958,7 +28910,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K756">
         <v>5.184113876487777E-05</v>
@@ -28984,7 +28936,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K757">
         <v>2.43650766421031E-05</v>
@@ -29010,7 +28962,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K758">
         <v>1.722871091776115E-05</v>
@@ -29036,7 +28988,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K759">
         <v>1.722871091776115E-05</v>
@@ -29062,7 +29014,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K760">
         <v>1.722871091776115E-05</v>
@@ -29088,7 +29040,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K761">
         <v>1.722871091776115E-05</v>
@@ -29114,7 +29066,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K762">
         <v>1.722871091776115E-05</v>
@@ -29140,7 +29092,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K763">
         <v>1.722871091776115E-05</v>
@@ -29166,7 +29118,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K764">
         <v>1.722871091776115E-05</v>
@@ -29192,7 +29144,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K765">
         <v>7.291392582844136E-06</v>
@@ -29218,7 +29170,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K766">
         <v>0</v>
@@ -29244,7 +29196,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K767">
         <v>0</v>
@@ -29270,7 +29222,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K768">
         <v>0</v>
@@ -29296,7 +29248,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K769">
         <v>0</v>
@@ -29322,7 +29274,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K770">
         <v>0</v>
@@ -29348,7 +29300,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K771">
         <v>0</v>
@@ -29374,7 +29326,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K772">
         <v>0</v>
@@ -29400,7 +29352,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K773">
         <v>0</v>
@@ -29426,7 +29378,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K774">
         <v>0</v>
@@ -29452,7 +29404,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K775">
         <v>0</v>
@@ -29478,7 +29430,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K776">
         <v>0</v>
@@ -29504,7 +29456,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K777">
         <v>0</v>
@@ -29530,7 +29482,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K778">
         <v>0</v>
@@ -29556,7 +29508,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K779">
         <v>0</v>
@@ -29582,7 +29534,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K780">
         <v>0</v>
@@ -29608,7 +29560,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K781">
         <v>0</v>
